--- a/data/rate_params.xlsx
+++ b/data/rate_params.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvinhan/Dropbox/tb_patat/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvinhan/Dropbox/tb-fundi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DED9E62-A413-444F-8751-131FB33D0F15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B03DC5D-04B5-B94E-B130-C118341C56C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="15440" xr2:uid="{CE4ECBD6-E232-224E-AFB6-0FC9DB0039E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterate="1" iterateCount="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>state_i</t>
   </si>
@@ -66,26 +66,31 @@
     <t>infection to recovered</t>
   </si>
   <si>
-    <t>recovered to susceptible</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4674135/</t>
+    <t>resusceptibilization</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,8 +113,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,16 +434,16 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,150 +457,147 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>1.83</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0.1</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0.04</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.18</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0.24</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>1.58</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>0.72</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>0.56999999999999995</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>0.33</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>0.87</v>
+      <c r="C11" s="1">
+        <v>0.85</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
